--- a/T6B - lançamento.xlsx
+++ b/T6B - lançamento.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunop\OneDrive\Ambiente de Trabalho\6b - lançamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunop\OneDrive\Documentos\GitHub\LABSFISICAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E43D86C-EED5-4391-B24F-33C9F538C0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9537EE2E-F34D-46FE-AB47-5090D401E892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E3B97DAB-F56B-4F1D-B140-62E03DA4F1DE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Ensaio</t>
   </si>
@@ -71,30 +71,6 @@
   </si>
   <si>
     <r>
-      <t>u(x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>̄)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (m)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>v</t>
     </r>
     <r>
@@ -126,32 +102,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (m/s)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>u(v̄</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) (m/s)</t>
     </r>
   </si>
   <si>
@@ -299,13 +249,70 @@
   <si>
     <t>v0 ajuste</t>
   </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>2.292</t>
+  </si>
+  <si>
+    <r>
+      <t>u(x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>̄)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>u(v̄</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) (%)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -429,15 +436,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -446,12 +450,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -466,6 +464,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -475,9 +477,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -591,25 +604,25 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.8897999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.1025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.2114000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.2917999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.2842500000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.2054999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.0489999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1229,25 +1242,25 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="7"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>8.8035259253614281E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>9.340931402172511E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>4.3450448817304913E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>3.0462570863840831E-4</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>3.4528351233845459E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>2.9880250536553759E-4</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>1.2092481180662877E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1259,25 +1272,25 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="7"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>8.8035259253614281E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>9.340931402172511E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>4.3450448817304913E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>3.0462570863840831E-4</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>3.4528351233845459E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>2.9880250536553759E-4</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>1.2092481180662877E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1333,25 +1346,25 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4.6267614688440091</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4.685000026749865</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.6934524986870576</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4.7415775855721272</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4.7701341298481461</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4.798385394827001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>4.8177045950114499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2006,25 +2019,25 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.8897999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.1025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.2114000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.2917999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.2842500000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.2054999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.0489999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5551,159 +5564,232 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="9.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="6">
         <v>10</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="6">
         <v>20</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="6">
         <v>30</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="6">
         <v>35</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="6">
         <v>40</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="6">
         <v>45</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="6">
         <v>50</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="6">
         <v>55</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="6">
         <v>60</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="6">
         <v>70</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="6">
         <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="E3" s="2">
+        <v>1.8819999999999999</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2.109</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2.2029999999999998</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2.29</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2.2869999999999999</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2.2109999999999999</v>
+      </c>
+      <c r="K3" s="2">
+        <v>2.0129999999999999</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8">
+      <c r="A4" s="17"/>
+      <c r="B4" s="6">
         <v>2</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="E4" s="2">
+        <v>1.877</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2.0790000000000002</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2.2010000000000001</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2.302</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2.0710000000000002</v>
+      </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8">
+      <c r="A5" s="17"/>
+      <c r="B5" s="6">
         <v>3</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="E5" s="2">
+        <v>1.913</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2.1179999999999999</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2.2130000000000001</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2.2959999999999998</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2.2850000000000001</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2.2094999999999998</v>
+      </c>
+      <c r="K5" s="2">
+        <v>2.0619999999999998</v>
+      </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8">
+      <c r="A6" s="17"/>
+      <c r="B6" s="6">
         <v>4</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="E6" s="2">
+        <v>1.885</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2.0870000000000002</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2.2240000000000002</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2.286</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2.2730000000000001</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2.1970000000000001</v>
+      </c>
+      <c r="K6" s="2">
+        <v>2.0569999999999999</v>
+      </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8">
+      <c r="A7" s="17"/>
+      <c r="B7" s="6">
         <v>5</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="E7" s="2">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2.1194999999999999</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2.2160000000000002</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2.2850000000000001</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2.2919999999999998</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2.21</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2.0419999999999998</v>
+      </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="2" t="e">
         <f>AVERAGE(C3:C7)</f>
         <v>#DIV/0!</v>
@@ -5712,33 +5798,33 @@
         <f t="shared" ref="D8:M8" si="0">AVERAGE(D3:D7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E8" s="2" t="e">
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F8" s="2" t="e">
+        <v>1.8897999999999999</v>
+      </c>
+      <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G8" s="2" t="e">
+        <v>2.1025</v>
+      </c>
+      <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H8" s="2" t="e">
+        <v>2.2114000000000003</v>
+      </c>
+      <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" s="2" t="e">
+        <v>2.2917999999999998</v>
+      </c>
+      <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" s="2" t="e">
+        <v>2.2842500000000001</v>
+      </c>
+      <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" s="2" t="e">
+        <v>2.2054999999999998</v>
+      </c>
+      <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>2.0489999999999999</v>
       </c>
       <c r="L8" s="2" t="e">
         <f t="shared" si="0"/>
@@ -5750,10 +5836,10 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="7"/>
+      <c r="A9" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="17"/>
       <c r="C9" s="2" t="e">
         <f>STDEV(C3:C7)</f>
         <v>#DIV/0!</v>
@@ -5762,33 +5848,33 @@
         <f t="shared" ref="D9:M9" si="1">STDEV(D3:D7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E9" s="2" t="e">
+      <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="2" t="e">
+        <v>1.4060583202698268E-2</v>
+      </c>
+      <c r="F9" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G9" s="2" t="e">
+        <v>1.8466185312619253E-2</v>
+      </c>
+      <c r="G9" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H9" s="2" t="e">
+        <v>9.5026312145637878E-3</v>
+      </c>
+      <c r="H9" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" s="2" t="e">
+        <v>7.1554175279992735E-3</v>
+      </c>
+      <c r="I9" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="2" t="e">
+        <v>8.0570879768477564E-3</v>
+      </c>
+      <c r="J9" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K9" s="2" t="e">
+        <v>6.4999999999998739E-3</v>
+      </c>
+      <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.2704625079485525E-2</v>
       </c>
       <c r="L9" s="2" t="e">
         <f t="shared" si="1"/>
@@ -5800,60 +5886,60 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="3" t="e">
-        <f>C9/SQRT(5)</f>
+      <c r="A10" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18" t="e">
+        <f>(C9/SQRT(5))/C8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D10" s="3" t="e">
-        <f t="shared" ref="D10:M10" si="2">D9/SQRT(5)</f>
+      <c r="D10" s="18" t="e">
+        <f t="shared" ref="D10:M10" si="2">(D9/SQRT(5))/D8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E10" s="3" t="e">
+      <c r="E10" s="18">
+        <f t="shared" si="2"/>
+        <v>3.3273806587496061E-3</v>
+      </c>
+      <c r="F10" s="18">
+        <f t="shared" si="2"/>
+        <v>3.9278616546135408E-3</v>
+      </c>
+      <c r="G10" s="18">
+        <f t="shared" si="2"/>
+        <v>1.9217264502917623E-3</v>
+      </c>
+      <c r="H10" s="18">
+        <f t="shared" si="2"/>
+        <v>1.3962823981150084E-3</v>
+      </c>
+      <c r="I10" s="18">
+        <f t="shared" si="2"/>
+        <v>1.5774277261182299E-3</v>
+      </c>
+      <c r="J10" s="18">
+        <f t="shared" si="2"/>
+        <v>1.3180178511673862E-3</v>
+      </c>
+      <c r="K10" s="18">
+        <f t="shared" si="2"/>
+        <v>4.9554987878356466E-3</v>
+      </c>
+      <c r="L10" s="18" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F10" s="3" t="e">
+      <c r="M10" s="18" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G10" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H10" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J10" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K10" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L10" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M10" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="7"/>
+      <c r="A11" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="17"/>
       <c r="C11" s="2" t="e">
         <f>SQRT($B$16*C8/C13)</f>
         <v>#DIV/0!</v>
@@ -5862,33 +5948,33 @@
         <f t="shared" ref="D11:M11" si="3">SQRT($B$16*D8/D13)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E11" s="2" t="e">
+      <c r="E11" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F11" s="2" t="e">
+        <v>4.6267614688440091</v>
+      </c>
+      <c r="F11" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G11" s="2" t="e">
+        <v>4.685000026749865</v>
+      </c>
+      <c r="G11" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H11" s="2" t="e">
+        <v>4.6934524986870576</v>
+      </c>
+      <c r="H11" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I11" s="2" t="e">
+        <v>4.7415775855721272</v>
+      </c>
+      <c r="I11" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J11" s="2" t="e">
+        <v>4.7701341298481461</v>
+      </c>
+      <c r="J11" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K11" s="2" t="e">
+        <v>4.798385394827001</v>
+      </c>
+      <c r="K11" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>4.8177045950114499</v>
       </c>
       <c r="L11" s="2" t="e">
         <f t="shared" si="3"/>
@@ -5900,60 +5986,60 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="2" t="e">
-        <f>1/2*C10*SQRT($B$16/(C13*C8))</f>
+      <c r="A12" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="19" t="e">
+        <f>(1/2*C10*SQRT($B$16/(C13*C8)))/C11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D12" s="2" t="e">
-        <f t="shared" ref="D12:M12" si="4">1/2*D10*SQRT($B$16/(D13*D8))</f>
+      <c r="D12" s="19" t="e">
+        <f t="shared" ref="D12:M12" si="4">(1/2*D10*SQRT($B$16/(D13*D8)))/D11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E12" s="2" t="e">
+      <c r="E12" s="19">
+        <f t="shared" si="4"/>
+        <v>8.8035259253614281E-4</v>
+      </c>
+      <c r="F12" s="19">
+        <f t="shared" si="4"/>
+        <v>9.340931402172511E-4</v>
+      </c>
+      <c r="G12" s="19">
+        <f t="shared" si="4"/>
+        <v>4.3450448817304913E-4</v>
+      </c>
+      <c r="H12" s="20">
+        <f t="shared" si="4"/>
+        <v>3.0462570863840831E-4</v>
+      </c>
+      <c r="I12" s="20">
+        <f t="shared" si="4"/>
+        <v>3.4528351233845459E-4</v>
+      </c>
+      <c r="J12" s="19">
+        <f t="shared" si="4"/>
+        <v>2.9880250536553759E-4</v>
+      </c>
+      <c r="K12" s="19">
+        <f t="shared" si="4"/>
+        <v>1.2092481180662877E-3</v>
+      </c>
+      <c r="L12" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F12" s="2" t="e">
+      <c r="M12" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J12" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K12" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L12" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M12" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="7"/>
+      <c r="A13" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="17"/>
       <c r="C13" s="2">
         <f>SIN(2*PI()*C2/180)</f>
         <v>0.34202014332566871</v>
@@ -6000,8 +6086,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>10</v>
+      <c r="A16" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B16" s="1">
         <v>9.81</v>
@@ -6009,31 +6095,31 @@
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
+      <c r="A18" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="4" t="e">
+      <c r="A19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="3" t="e">
         <f t="array" ref="B19:C21">LINEST(C8:M8,C13:M13,1,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C19" s="4" t="e">
+      <c r="C19" s="3" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>11</v>
+      <c r="D19" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>15</v>
+      <c r="A20" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="B20" s="1" t="e">
         <v>#VALUE!</v>
@@ -6041,13 +6127,13 @@
       <c r="C20" s="1" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>12</v>
+      <c r="D20" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
-        <v>14</v>
+      <c r="A21" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="B21" s="1" t="e">
         <v>#VALUE!</v>
@@ -6055,140 +6141,143 @@
       <c r="C21" s="1" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>13</v>
+      <c r="D21" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="5" t="e">
+      <c r="A25" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="4">
         <f>AVERAGEA(E11:K11)</f>
-        <v>#DIV/0!</v>
+        <v>4.7332879570770938</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="5" t="e">
+      <c r="A27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="4">
         <f>STDEV(E11:K11)</f>
-        <v>#DIV/0!</v>
+        <v>6.8382117796380384E-2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="5" t="e">
+      <c r="A29" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="4">
         <f>B27/SQRT(7)</f>
-        <v>#DIV/0!</v>
+        <v>2.584601111616381E-2</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="5" t="e">
+      <c r="A33" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="4" t="e">
         <f>$B$19*C13+$C$19</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D33" s="5" t="e">
+      <c r="D33" s="4" t="e">
         <f t="shared" ref="D33:M33" si="6">$B$19*D13+$C$19</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E33" s="5" t="e">
+      <c r="E33" s="4" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F33" s="5" t="e">
+      <c r="F33" s="4" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G33" s="5" t="e">
+      <c r="G33" s="4" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H33" s="5" t="e">
+      <c r="H33" s="4" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I33" s="5" t="e">
+      <c r="I33" s="4" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J33" s="5" t="e">
+      <c r="J33" s="4" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K33" s="5" t="e">
+      <c r="K33" s="4" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L33" s="5" t="e">
+      <c r="L33" s="4" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M33" s="5" t="e">
+      <c r="M33" s="4" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="6" t="e">
+      <c r="A34" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="5" t="e">
         <f>C8-C33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D34" s="6" t="e">
+      <c r="D34" s="5" t="e">
         <f t="shared" ref="D34:M34" si="7">D8-D33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E34" s="6" t="e">
+      <c r="E34" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F34" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G34" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H34" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I34" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J34" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K34" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L34" s="5" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F34" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G34" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H34" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I34" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J34" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K34" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L34" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M34" s="6" t="e">
+      <c r="M34" s="5" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L38" t="e">
         <f>SQRT(B16*B19)</f>

--- a/T6B - lançamento.xlsx
+++ b/T6B - lançamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunop\OneDrive\Documentos\GitHub\LABSFISICAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9537EE2E-F34D-46FE-AB47-5090D401E892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE1CDDA-08CB-4AAD-A5A1-0842CD582045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E3B97DAB-F56B-4F1D-B140-62E03DA4F1DE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="25">
   <si>
     <t>Ensaio</t>
   </si>
@@ -105,20 +105,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>sen(2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>θ)</t>
-    </r>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
@@ -136,49 +122,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>g(m/s</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>b</t>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>b</t>
-    </r>
   </si>
   <si>
     <r>
@@ -213,22 +157,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>m</t>
-    </r>
-  </si>
-  <si>
     <t>Parâmetros de ajuste:</t>
   </si>
   <si>
@@ -244,13 +172,7 @@
     <t>u(v0)</t>
   </si>
   <si>
-    <t>resíduos</t>
-  </si>
-  <si>
     <t>v0 ajuste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
   </si>
   <si>
     <t>2.292</t>
@@ -304,6 +226,68 @@
       </rPr>
       <t>) (%)</t>
     </r>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <r>
+      <t>sen(2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>θ)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (s.u.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>g (m/s</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>u(m)</t>
+  </si>
+  <si>
+    <t>u(b)</t>
+  </si>
+  <si>
+    <t>Resíduos</t>
   </si>
 </sst>
 </file>
@@ -359,7 +343,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -396,38 +380,71 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -436,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -448,37 +465,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -491,6 +483,48 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,6 +601,109 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:forward val="10"/>
+            <c:backward val="6"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.1070034670375531"/>
+                  <c:y val="-0.67358894601241603"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = -0,0014x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="30000">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t> + 0,1323x - 0,8089</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Folha1!$E$2:$K$2</c:f>
@@ -634,194 +771,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>x excluídos</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>(Folha1!$C$2:$D$2,Folha1!$L$2:$M$2)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>(Folha1!$C$8:$D$8,Folha1!$L$8:$M$8)</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-51AB-49B6-8A57-3E2B4C36075D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>x ajuste</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Folha1!$C$2:$M$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>80</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Folha1!$C$33:$M$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-51AB-49B6-8A57-3E2B4C36075D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -837,8 +786,8 @@
         <c:axId val="303449679"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="90"/>
-          <c:min val="0"/>
+          <c:max val="75"/>
+          <c:min val="20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -961,7 +910,7 @@
         <c:axId val="303448847"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.5"/>
+          <c:min val="1.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1089,10 +1038,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21394462859677352"/>
-          <c:y val="9.912559872361959E-2"/>
-          <c:w val="0.18988995726495728"/>
-          <c:h val="0.22255098279141491"/>
+          <c:x val="0.18957005578224156"/>
+          <c:y val="7.2900412101621917E-2"/>
+          <c:w val="0.18718164265671722"/>
+          <c:h val="0.1963257771044406"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1376,144 +1325,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>v0 excluídos</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>(Folha1!$C$12:$D$12,Folha1!$L$12:$M$12)</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>(Folha1!$C$12:$D$12,Folha1!$L$12:$M$12)</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:xVal>
-            <c:numRef>
-              <c:f>(Folha1!$C$2:$D$2,Folha1!$L$2:$M$2)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>(Folha1!$C$11:$D$11,Folha1!$L$11:$M$11)</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-0528-4085-AE91-BC9FCACF45BF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1529,8 +1340,8 @@
         <c:axId val="360152847"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="90"/>
-          <c:min val="0"/>
+          <c:max val="65"/>
+          <c:min val="25"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1792,8 +1603,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.2269965811965812"/>
           <c:y val="0.10998281822086764"/>
-          <c:w val="0.180865811965812"/>
-          <c:h val="0.15896169914096739"/>
+          <c:w val="0.19690431509815473"/>
+          <c:h val="0.15069134329659817"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1952,6 +1763,40 @@
                   <c:y val="1.4729844250991416E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 2,3704x - 0,0808</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2110,7 +1955,10 @@
                   <a:rPr lang="el-GR" sz="1200"/>
                   <a:t>θ)</a:t>
                 </a:r>
-                <a:endParaRPr lang="pt-PT" sz="1200"/>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1200"/>
+                  <a:t> (s.u.)</a:t>
+                </a:r>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2431,15 +2279,28 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15237292213473316"/>
+          <c:y val="6.3588844921132981E-2"/>
+          <c:w val="0.79617563429571303"/>
+          <c:h val="0.73084035565992722"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Resíduos</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -2447,7 +2308,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="x"/>
-            <c:size val="4"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525">
@@ -2460,84 +2321,60 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$C$13:$M$13</c:f>
+              <c:f>Folha1!$E$13:$K$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.34202014332566871</c:v>
+                  <c:v>0.8660254037844386</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64278760968653925</c:v>
+                  <c:v>0.93969262078590832</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8660254037844386</c:v>
+                  <c:v>0.98480775301220802</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93969262078590832</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.98480775301220802</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0.93969262078590843</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98480775301220802</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.93969262078590843</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>0.86602540378443871</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.64278760968653947</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.34202014332566888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$C$34:$M$34</c:f>
+              <c:f>Folha1!$C$34:$I$34</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-8.2246183448225318E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-4.4165311891825709E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-4.2205215279475627E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.1834212390552388E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3.0644784720524232E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5.8834688108174049E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>7.695381655177469E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2545,7 +2382,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D124-48CF-BFAE-6456300641CD}"/>
+              <c16:uniqueId val="{00000000-5B2F-4E6A-BBE2-846E7AEE242B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2557,11 +2394,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1091143007"/>
-        <c:axId val="1091143839"/>
+        <c:axId val="235751904"/>
+        <c:axId val="235753152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1091143007"/>
+        <c:axId val="235751904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2587,27 +2424,13 @@
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                  <a:lnSpc>
-                    <a:spcPct val="100000"/>
-                  </a:lnSpc>
-                  <a:spcBef>
-                    <a:spcPts val="0"/>
-                  </a:spcBef>
-                  <a:spcAft>
-                    <a:spcPts val="0"/>
-                  </a:spcAft>
-                  <a:buClrTx/>
-                  <a:buSzTx/>
-                  <a:buFontTx/>
-                  <a:buNone/>
-                  <a:tabLst/>
-                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
+                      <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:sysClr>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2615,20 +2438,18 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="el-GR" sz="1050" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>θ</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>sen(2</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="pt-PT" sz="1050" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t> (º)</a:t>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>θ)</a:t>
                 </a:r>
-                <a:endParaRPr lang="pt-PT" sz="1050">
-                  <a:effectLst/>
-                </a:endParaRPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t> (s.u.)</a:t>
+                </a:r>
+                <a:endParaRPr lang="el-GR"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2644,27 +2465,13 @@
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
+                    <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
-                    </a:sysClr>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2675,7 +2482,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.0000" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2712,12 +2519,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1091143839"/>
-        <c:crossesAt val="-0.12000000000000001"/>
+        <c:crossAx val="235753152"/>
+        <c:crossesAt val="-2500"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1091143839"/>
+        <c:axId val="235753152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2757,14 +2564,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-PT"/>
-                  <a:t>Resíduos de</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Resíduos</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="pt-PT" baseline="0"/>
-                  <a:t> x (m)</a:t>
-                </a:r>
-                <a:endParaRPr lang="pt-PT"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2834,10 +2636,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1091143007"/>
+        <c:crossAx val="235751904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="4.0000000000000008E-2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -5227,23 +5028,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2908</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>172760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
+      <xdr:colOff>241396</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>30830</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="27" name="Gráfico 26">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A4910DE-F5A4-4B4E-90C8-65A7A6ADC0BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE22CC6B-8DF0-D6B2-A8E3-DCD1EB88B978}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5561,82 +5362,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3436F49C-B1ED-4D60-9B97-C8A92385BDF0}">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="6">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="8">
         <v>10</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="8">
         <v>20</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="8">
         <v>30</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="8">
         <v>35</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="8">
         <v>40</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="8">
         <v>45</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="8">
         <v>50</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="8">
         <v>55</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="8">
         <v>60</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="16">
         <v>70</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="16">
         <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E3" s="2">
         <v>1.8819999999999999</v>
       </c>
@@ -5655,19 +5461,27 @@
       <c r="J3" s="2">
         <v>2.2109999999999999</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="15">
         <v>2.0129999999999999</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="L3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="6">
+      <c r="A4" s="14"/>
+      <c r="B4" s="8">
         <v>2</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E4" s="2">
         <v>1.877</v>
       </c>
@@ -5681,24 +5495,32 @@
         <v>2.302</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J4" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="15">
         <v>2.0710000000000002</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="L4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="6">
+      <c r="A5" s="14"/>
+      <c r="B5" s="8">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E5" s="2">
         <v>1.913</v>
       </c>
@@ -5717,19 +5539,27 @@
       <c r="J5" s="2">
         <v>2.2094999999999998</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="15">
         <v>2.0619999999999998</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="L5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="6">
+      <c r="A6" s="14"/>
+      <c r="B6" s="8">
         <v>4</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E6" s="2">
         <v>1.885</v>
       </c>
@@ -5748,19 +5578,27 @@
       <c r="J6" s="2">
         <v>2.1970000000000001</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="15">
         <v>2.0569999999999999</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="L6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
-      <c r="B7" s="6">
+      <c r="A7" s="14"/>
+      <c r="B7" s="8">
         <v>5</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E7" s="2">
         <v>1.8919999999999999</v>
       </c>
@@ -5779,27 +5617,29 @@
       <c r="J7" s="2">
         <v>2.21</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="15">
         <v>2.0419999999999998</v>
       </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="L7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="2" t="e">
-        <f>AVERAGE(C3:C7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D8" s="2" t="e">
-        <f t="shared" ref="D8:M8" si="0">AVERAGE(D3:D7)</f>
-        <v>#DIV/0!</v>
+      <c r="B8" s="14"/>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D8:M8" si="0">AVERAGE(E3:E7)</f>
         <v>1.8897999999999999</v>
       </c>
       <c r="F8" s="2">
@@ -5826,30 +5666,26 @@
         <f t="shared" si="0"/>
         <v>2.0489999999999999</v>
       </c>
-      <c r="L8" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M8" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="L8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="2" t="e">
-        <f>STDEV(C3:C7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D9" s="2" t="e">
-        <f t="shared" ref="D9:M9" si="1">STDEV(D3:D7)</f>
-        <v>#DIV/0!</v>
+      <c r="A9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D9:M9" si="1">STDEV(E3:E7)</f>
         <v>1.4060583202698268E-2</v>
       </c>
       <c r="F9" s="2">
@@ -5876,80 +5712,72 @@
         <f t="shared" si="1"/>
         <v>2.2704625079485525E-2</v>
       </c>
-      <c r="L9" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M9" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="L9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18" t="e">
-        <f>(C9/SQRT(5))/C8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D10" s="18" t="e">
-        <f t="shared" ref="D10:M10" si="2">(D9/SQRT(5))/D8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E10" s="18">
-        <f t="shared" si="2"/>
+      <c r="A10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" ref="D10:M10" si="2">(E9/SQRT(5))/E8</f>
         <v>3.3273806587496061E-3</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="9">
         <f t="shared" si="2"/>
         <v>3.9278616546135408E-3</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="9">
         <f t="shared" si="2"/>
         <v>1.9217264502917623E-3</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="9">
         <f t="shared" si="2"/>
         <v>1.3962823981150084E-3</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="9">
         <f t="shared" si="2"/>
         <v>1.5774277261182299E-3</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="9">
         <f t="shared" si="2"/>
         <v>1.3180178511673862E-3</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K10" s="9">
         <f t="shared" si="2"/>
         <v>4.9554987878356466E-3</v>
       </c>
-      <c r="L10" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M10" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="L10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="2" t="e">
-        <f>SQRT($B$16*C8/C13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D11" s="2" t="e">
-        <f t="shared" ref="D11:M11" si="3">SQRT($B$16*D8/D13)</f>
-        <v>#DIV/0!</v>
+      <c r="B11" s="14"/>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D11:M11" si="3">SQRT($B$16*E8/E13)</f>
         <v>4.6267614688440091</v>
       </c>
       <c r="F11" s="2">
@@ -5976,80 +5804,72 @@
         <f t="shared" si="3"/>
         <v>4.8177045950114499</v>
       </c>
-      <c r="L11" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M11" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="L11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="17" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="19" t="e">
-        <f>(1/2*C10*SQRT($B$16/(C13*C8)))/C11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D12" s="19" t="e">
-        <f t="shared" ref="D12:M12" si="4">(1/2*D10*SQRT($B$16/(D13*D8)))/D11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E12" s="19">
-        <f t="shared" si="4"/>
+      <c r="A12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" ref="D12:M12" si="4">(1/2*E10*SQRT($B$16/(E13*E8)))/E11</f>
         <v>8.8035259253614281E-4</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="10">
         <f t="shared" si="4"/>
         <v>9.340931402172511E-4</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="10">
         <f t="shared" si="4"/>
         <v>4.3450448817304913E-4</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="11">
         <f t="shared" si="4"/>
         <v>3.0462570863840831E-4</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="11">
         <f t="shared" si="4"/>
         <v>3.4528351233845459E-4</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="10">
         <f t="shared" si="4"/>
         <v>2.9880250536553759E-4</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="10">
         <f t="shared" si="4"/>
         <v>1.2092481180662877E-3</v>
       </c>
-      <c r="L12" s="19" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M12" s="19" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="L12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="17" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="2">
-        <f>SIN(2*PI()*C2/180)</f>
-        <v>0.34202014332566871</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" ref="D13:M13" si="5">SIN(2*PI()*D2/180)</f>
-        <v>0.64278760968653925</v>
+      <c r="A13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="D13:M13" si="5">SIN(2*PI()*E2/180)</f>
         <v>0.8660254037844386</v>
       </c>
       <c r="F13" s="2">
@@ -6076,235 +5896,276 @@
         <f t="shared" si="5"/>
         <v>0.86602540378443871</v>
       </c>
-      <c r="L13" s="2">
-        <f t="shared" si="5"/>
-        <v>0.64278760968653947</v>
-      </c>
-      <c r="M13" s="2">
-        <f t="shared" si="5"/>
-        <v>0.34202014332566888</v>
-      </c>
+      <c r="L13" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
     </row>
     <row r="16" spans="1:13" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>8</v>
+      <c r="A16" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="B16" s="1">
         <v>9.81</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="13" t="s">
-        <v>14</v>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
+      <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="3" t="e">
-        <f t="array" ref="B19:C21">LINEST(C8:M8,C13:M13,1,1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C19" s="3" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D19" s="9" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3">
+        <f t="array" ref="B19:C21">LINEST(E8:K8,E13:K13,1,1)</f>
+        <v>2.370377700573604</v>
+      </c>
+      <c r="C19" s="3">
+        <v>-8.0761121812659376E-2</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.47370047016794675</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.44601707073868618</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
         <v>9</v>
       </c>
+      <c r="B21" s="1">
+        <v>0.83355307119159816</v>
+      </c>
+      <c r="C21" s="1">
+        <v>6.4534595727614108E-2</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C20" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>10</v>
-      </c>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
     </row>
-    <row r="21" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="22"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="B21" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C21" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
-        <v>16</v>
       </c>
       <c r="B25" s="4">
         <f>AVERAGEA(E11:K11)</f>
         <v>4.7332879570770938</v>
       </c>
-      <c r="D25" t="s">
-        <v>21</v>
+      <c r="D25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="4">
+        <f>SQRT(B16*B19)</f>
+        <v>4.8221784747795322</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
-        <v>17</v>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="22"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="B27" s="4">
         <f>STDEV(E11:K11)</f>
         <v>6.8382117796380384E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
-        <v>18</v>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="22"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="B29" s="4">
         <f>B27/SQRT(7)</f>
         <v>2.584601111616381E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="22"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="8">
+        <v>30</v>
+      </c>
+      <c r="D32" s="8">
+        <v>35</v>
+      </c>
+      <c r="E32" s="8">
+        <v>40</v>
+      </c>
+      <c r="F32" s="8">
+        <v>45</v>
+      </c>
+      <c r="G32" s="8">
+        <v>50</v>
+      </c>
+      <c r="H32" s="8">
+        <v>55</v>
+      </c>
+      <c r="I32" s="8">
+        <v>60</v>
+      </c>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B33" s="12"/>
-      <c r="C33" s="4" t="e">
-        <f>$B$19*C13+$C$19</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D33" s="4" t="e">
-        <f t="shared" ref="D33:M33" si="6">$B$19*D13+$C$19</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E33" s="4" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F33" s="4" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G33" s="4" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H33" s="4" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I33" s="4" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J33" s="4" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K33" s="4" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L33" s="4" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M33" s="4" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="C33" s="24">
+        <f>$B$19*E13+$C$19</f>
+        <v>1.9720461834482252</v>
+      </c>
+      <c r="D33" s="24">
+        <f>$B$19*F13+$C$19</f>
+        <v>2.1466653118918257</v>
+      </c>
+      <c r="E33" s="24">
+        <f>$B$19*G13+$C$19</f>
+        <v>2.2536052152794759</v>
+      </c>
+      <c r="F33" s="24">
+        <f>$B$19*H13+$C$19</f>
+        <v>2.2896165787609446</v>
+      </c>
+      <c r="G33" s="24">
+        <f>$B$19*I13+$C$19</f>
+        <v>2.2536052152794759</v>
+      </c>
+      <c r="H33" s="24">
+        <f>$B$19*J13+$C$19</f>
+        <v>2.1466653118918257</v>
+      </c>
+      <c r="I33" s="24">
+        <f>$B$19*K13+$C$19</f>
+        <v>1.9720461834482252</v>
+      </c>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B34" s="12"/>
-      <c r="C34" s="5" t="e">
-        <f>C8-C33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D34" s="5" t="e">
-        <f t="shared" ref="D34:M34" si="7">D8-D33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E34" s="5" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F34" s="5" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G34" s="5" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H34" s="5" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I34" s="5" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J34" s="5" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K34" s="5" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L34" s="5" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M34" s="5" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="K38" t="s">
-        <v>20</v>
-      </c>
-      <c r="L38" t="e">
-        <f>SQRT(B16*B19)</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="C34" s="25">
+        <f>E8-C33</f>
+        <v>-8.2246183448225318E-2</v>
+      </c>
+      <c r="D34" s="25">
+        <f>F8-D33</f>
+        <v>-4.4165311891825709E-2</v>
+      </c>
+      <c r="E34" s="25">
+        <f>G8-E33</f>
+        <v>-4.2205215279475627E-2</v>
+      </c>
+      <c r="F34" s="25">
+        <f>H8-F33</f>
+        <v>2.1834212390552388E-3</v>
+      </c>
+      <c r="G34" s="25">
+        <f>I8-G33</f>
+        <v>3.0644784720524232E-2</v>
+      </c>
+      <c r="H34" s="25">
+        <f>J8-H33</f>
+        <v>5.8834688108174049E-2</v>
+      </c>
+      <c r="I34" s="25">
+        <f>K8-I33</f>
+        <v>7.695381655177469E-2</v>
+      </c>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="12">
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="C1:M1"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="C8" formulaRange="1"/>
-  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/T6B - lançamento.xlsx
+++ b/T6B - lançamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunop\OneDrive\Documentos\GitHub\LABSFISICAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE1CDDA-08CB-4AAD-A5A1-0842CD582045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42E2044-73FA-4F62-BF6A-096E1E2428E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E3B97DAB-F56B-4F1D-B140-62E03DA4F1DE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Ensaio</t>
   </si>
@@ -179,59 +179,6 @@
   </si>
   <si>
     <r>
-      <t>u(x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>̄)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (%)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>u(v̄</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) (%)</t>
-    </r>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <r>
       <t>sen(2</t>
     </r>
     <r>
@@ -289,14 +236,63 @@
   <si>
     <t>Resíduos</t>
   </si>
+  <si>
+    <r>
+      <t>u(x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>̄)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (m)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>u(v̄</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (m/s)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -343,7 +339,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -396,19 +392,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -449,11 +432,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -475,45 +482,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -525,6 +493,39 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,65 +616,15 @@
             <c:order val="2"/>
             <c:forward val="10"/>
             <c:backward val="6"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.1070034670375531"/>
-                  <c:y val="-0.67358894601241603"/>
+                  <c:x val="0.13068226495726495"/>
+                  <c:y val="-0.61575795495477992"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="accent1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>y = -0,0014x</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="30000">
-                        <a:solidFill>
-                          <a:schemeClr val="accent1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>2</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="accent1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t> + 0,1323x - 0,8089</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1"/>
-                      </a:solidFill>
-                    </a:endParaRPr>
-                  </a:p>
-                </c:rich>
-              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -704,11 +655,127 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Folha1!$C$10:$I$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>6.2880839689050056E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.2583291288249698E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.2497058721752039E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.1999999999999759E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.603239283385567E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.9068883707496699E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.0153817016275239E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Folha1!$C$10:$I$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>6.2880839689050056E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.2583291288249698E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.2497058721752039E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.1999999999999759E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.603239283385567E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.9068883707496699E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.0153817016275239E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$E$2:$K$2</c:f>
+              <c:f>Folha1!$C$2:$I$2</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>30</c:v>
@@ -736,7 +803,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$E$8:$K$8</c:f>
+              <c:f>Folha1!$C$8:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -864,7 +931,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1180,66 +1247,103 @@
             </c:spPr>
           </c:marker>
           <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Folha1!$E$12:$K$12</c:f>
+                <c:f>Folha1!$C$12:$I$12</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="7"/>
                   <c:pt idx="0">
-                    <c:v>8.8035259253614281E-4</c:v>
+                    <c:v>7.6974983120397357E-3</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>9.340931402172511E-4</c:v>
+                    <c:v>9.2010159784671041E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.3450448817304913E-4</c:v>
+                    <c:v>4.5097659049574404E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.0462570863840831E-4</c:v>
+                    <c:v>3.3102906610155101E-3</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>3.4528351233845459E-4</c:v>
+                    <c:v>3.7622709168626612E-3</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2.9880250536553759E-4</c:v>
+                    <c:v>3.1621788035814265E-3</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.2092481180662877E-3</c:v>
+                    <c:v>1.1937064640364731E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Folha1!$E$12:$K$12</c:f>
+                <c:f>Folha1!$C$12:$I$12</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="7"/>
                   <c:pt idx="0">
-                    <c:v>8.8035259253614281E-4</c:v>
+                    <c:v>7.6974983120397357E-3</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>9.340931402172511E-4</c:v>
+                    <c:v>9.2010159784671041E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.3450448817304913E-4</c:v>
+                    <c:v>4.5097659049574404E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.0462570863840831E-4</c:v>
+                    <c:v>3.3102906610155101E-3</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>3.4528351233845459E-4</c:v>
+                    <c:v>3.7622709168626612E-3</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2.9880250536553759E-4</c:v>
+                    <c:v>3.1621788035814265E-3</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.2092481180662877E-3</c:v>
+                    <c:v>1.1937064640364731E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1260,9 +1364,9 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$E$2:$K$2</c:f>
+              <c:f>Folha1!$C$2:$I$2</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>30</c:v>
@@ -1290,7 +1394,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$E$11:$K$11</c:f>
+              <c:f>Folha1!$C$11:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1418,7 +1522,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1827,9 +1931,88 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Folha1!$C$10:$I$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>6.2880839689050056E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.2583291288249698E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.2497058721752039E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.1999999999999759E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.603239283385567E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.9068883707496699E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.0153817016275239E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Folha1!$C$10:$I$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>6.2880839689050056E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.2583291288249698E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.2497058721752039E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.1999999999999759E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.603239283385567E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.9068883707496699E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.0153817016275239E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$E$13:$K$13</c:f>
+              <c:f>Folha1!$C$13:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1859,7 +2042,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$E$8:$K$8</c:f>
+              <c:f>Folha1!$C$8:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2321,7 +2504,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$E$13:$K$13</c:f>
+              <c:f>Folha1!$C$13:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2351,7 +2534,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$C$34:$I$34</c:f>
+              <c:f>Folha1!$D$22:$J$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4920,16 +5103,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>521970</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>115620</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>174900</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>210870</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>3450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4956,16 +5139,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>442503</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>150766</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>85140</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>68220</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>196718</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>119926</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4992,16 +5175,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>56062</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>123240</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>106320</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>468862</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>46449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5028,16 +5211,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2908</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>172760</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>65500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>4032</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>241396</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>30830</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>361138</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>52600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5362,10 +5545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3436F49C-B1ED-4D60-9B97-C8A92385BDF0}">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5374,797 +5557,614 @@
     <col min="9" max="9" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="8">
-        <v>10</v>
-      </c>
-      <c r="D2" s="8">
-        <v>20</v>
-      </c>
-      <c r="E2" s="8">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="13">
         <v>30</v>
       </c>
-      <c r="F2" s="8">
+      <c r="D2" s="13">
         <v>35</v>
       </c>
-      <c r="G2" s="8">
+      <c r="E2" s="13">
         <v>40</v>
       </c>
-      <c r="H2" s="8">
+      <c r="F2" s="13">
         <v>45</v>
       </c>
-      <c r="I2" s="8">
+      <c r="G2" s="13">
         <v>50</v>
       </c>
-      <c r="J2" s="8">
+      <c r="H2" s="13">
         <v>55</v>
       </c>
-      <c r="K2" s="8">
+      <c r="I2" s="13">
         <v>60</v>
       </c>
-      <c r="L2" s="16">
-        <v>70</v>
-      </c>
-      <c r="M2" s="16">
-        <v>80</v>
-      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
+      <c r="C3" s="2">
+        <v>1.8819999999999999</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2.109</v>
       </c>
       <c r="E3" s="2">
-        <v>1.8819999999999999</v>
+        <v>2.2029999999999998</v>
       </c>
       <c r="F3" s="2">
-        <v>2.109</v>
+        <v>2.29</v>
       </c>
       <c r="G3" s="2">
-        <v>2.2029999999999998</v>
+        <v>2.2869999999999999</v>
       </c>
       <c r="H3" s="2">
-        <v>2.29</v>
+        <v>2.2109999999999999</v>
       </c>
       <c r="I3" s="2">
-        <v>2.2869999999999999</v>
-      </c>
-      <c r="J3" s="2">
-        <v>2.2109999999999999</v>
-      </c>
-      <c r="K3" s="15">
         <v>2.0129999999999999</v>
       </c>
-      <c r="L3" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
       <c r="B4" s="8">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
+      <c r="C4" s="2">
+        <v>1.877</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2.0790000000000002</v>
       </c>
       <c r="E4" s="2">
-        <v>1.877</v>
+        <v>2.2010000000000001</v>
       </c>
       <c r="F4" s="2">
-        <v>2.0790000000000002</v>
-      </c>
-      <c r="G4" s="2">
-        <v>2.2010000000000001</v>
+        <v>2.302</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="H4" s="2">
-        <v>2.302</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K4" s="15">
+      <c r="I4" s="2">
         <v>2.0710000000000002</v>
       </c>
-      <c r="L4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="17" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
       <c r="B5" s="8">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
+      <c r="C5" s="2">
+        <v>1.913</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2.1179999999999999</v>
       </c>
       <c r="E5" s="2">
-        <v>1.913</v>
+        <v>2.2130000000000001</v>
       </c>
       <c r="F5" s="2">
-        <v>2.1179999999999999</v>
+        <v>2.2959999999999998</v>
       </c>
       <c r="G5" s="2">
-        <v>2.2130000000000001</v>
+        <v>2.2850000000000001</v>
       </c>
       <c r="H5" s="2">
-        <v>2.2959999999999998</v>
+        <v>2.2094999999999998</v>
       </c>
       <c r="I5" s="2">
-        <v>2.2850000000000001</v>
-      </c>
-      <c r="J5" s="2">
-        <v>2.2094999999999998</v>
-      </c>
-      <c r="K5" s="15">
         <v>2.0619999999999998</v>
       </c>
-      <c r="L5" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="17" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
       <c r="B6" s="8">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
+      <c r="C6" s="2">
+        <v>1.885</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2.0870000000000002</v>
       </c>
       <c r="E6" s="2">
-        <v>1.885</v>
+        <v>2.2240000000000002</v>
       </c>
       <c r="F6" s="2">
-        <v>2.0870000000000002</v>
+        <v>2.286</v>
       </c>
       <c r="G6" s="2">
-        <v>2.2240000000000002</v>
+        <v>2.2730000000000001</v>
       </c>
       <c r="H6" s="2">
-        <v>2.286</v>
+        <v>2.1970000000000001</v>
       </c>
       <c r="I6" s="2">
-        <v>2.2730000000000001</v>
-      </c>
-      <c r="J6" s="2">
-        <v>2.1970000000000001</v>
-      </c>
-      <c r="K6" s="15">
         <v>2.0569999999999999</v>
       </c>
-      <c r="L6" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
       <c r="B7" s="8">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
+      <c r="C7" s="2">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2.1194999999999999</v>
       </c>
       <c r="E7" s="2">
-        <v>1.8919999999999999</v>
+        <v>2.2160000000000002</v>
       </c>
       <c r="F7" s="2">
-        <v>2.1194999999999999</v>
+        <v>2.2850000000000001</v>
       </c>
       <c r="G7" s="2">
-        <v>2.2160000000000002</v>
+        <v>2.2919999999999998</v>
       </c>
       <c r="H7" s="2">
-        <v>2.2850000000000001</v>
+        <v>2.21</v>
       </c>
       <c r="I7" s="2">
-        <v>2.2919999999999998</v>
-      </c>
-      <c r="J7" s="2">
-        <v>2.21</v>
-      </c>
-      <c r="K7" s="15">
         <v>2.0419999999999998</v>
       </c>
-      <c r="L7" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
+      <c r="B8" s="15"/>
+      <c r="C8" s="2">
+        <f t="shared" ref="C8:I8" si="0">AVERAGE(C3:C7)</f>
+        <v>1.8897999999999999</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1025</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" ref="D8:M8" si="0">AVERAGE(E3:E7)</f>
-        <v>1.8897999999999999</v>
+        <f t="shared" si="0"/>
+        <v>2.2114000000000003</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>2.1025</v>
+        <v>2.2917999999999998</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>2.2114000000000003</v>
+        <v>2.2842500000000001</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>2.2917999999999998</v>
+        <v>2.2054999999999998</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>2.2842500000000001</v>
-      </c>
-      <c r="J8" s="2">
-        <f t="shared" si="0"/>
-        <v>2.2054999999999998</v>
-      </c>
-      <c r="K8" s="2">
-        <f t="shared" si="0"/>
         <v>2.0489999999999999</v>
       </c>
-      <c r="L8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="17" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
+      <c r="B9" s="15"/>
+      <c r="C9" s="2">
+        <f t="shared" ref="C9:I9" si="1">STDEV(C3:C7)</f>
+        <v>1.4060583202698268E-2</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8466185312619253E-2</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" ref="D9:M9" si="1">STDEV(E3:E7)</f>
-        <v>1.4060583202698268E-2</v>
+        <f t="shared" si="1"/>
+        <v>9.5026312145637878E-3</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="1"/>
-        <v>1.8466185312619253E-2</v>
+        <v>7.1554175279992735E-3</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="1"/>
-        <v>9.5026312145637878E-3</v>
+        <v>8.0570879768477564E-3</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="1"/>
-        <v>7.1554175279992735E-3</v>
+        <v>6.4999999999998739E-3</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="1"/>
-        <v>8.0570879768477564E-3</v>
-      </c>
-      <c r="J9" s="2">
-        <f t="shared" si="1"/>
-        <v>6.4999999999998739E-3</v>
-      </c>
-      <c r="K9" s="2">
-        <f t="shared" si="1"/>
         <v>2.2704625079485525E-2</v>
       </c>
-      <c r="L9" s="17" t="s">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="23">
+        <f>(C9/SQRT(5))</f>
+        <v>6.2880839689050056E-3</v>
+      </c>
+      <c r="D10" s="23">
+        <f t="shared" ref="D10:I10" si="2">(D9/SQRT(5))</f>
+        <v>8.2583291288249698E-3</v>
+      </c>
+      <c r="E10" s="23">
+        <f t="shared" si="2"/>
+        <v>4.2497058721752039E-3</v>
+      </c>
+      <c r="F10" s="23">
+        <f t="shared" si="2"/>
+        <v>3.1999999999999759E-3</v>
+      </c>
+      <c r="G10" s="23">
+        <f t="shared" si="2"/>
+        <v>3.603239283385567E-3</v>
+      </c>
+      <c r="H10" s="23">
+        <f t="shared" si="2"/>
+        <v>2.9068883707496699E-3</v>
+      </c>
+      <c r="I10" s="23">
+        <f t="shared" si="2"/>
+        <v>1.0153817016275239E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="2">
+        <f>SQRT($G$17*C8/C13)</f>
+        <v>4.6267614688440091</v>
+      </c>
+      <c r="D11" s="2">
+        <f>SQRT($G$17*D8/D13)</f>
+        <v>4.685000026749865</v>
+      </c>
+      <c r="E11" s="2">
+        <f>SQRT($G$17*E8/E13)</f>
+        <v>4.6934524986870576</v>
+      </c>
+      <c r="F11" s="2">
+        <f>SQRT($G$17*F8/F13)</f>
+        <v>4.7415775855721272</v>
+      </c>
+      <c r="G11" s="2">
+        <f>SQRT($G$17*G8/G13)</f>
+        <v>4.7701341298481461</v>
+      </c>
+      <c r="H11" s="2">
+        <f>SQRT($G$17*H8/H13)</f>
+        <v>4.798385394827001</v>
+      </c>
+      <c r="I11" s="2">
+        <f>SQRT($G$17*I8/I13)</f>
+        <v>4.8177045950114499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="2">
+        <f>(1/2*C10*SQRT($G$17/(C13*C8)))</f>
+        <v>7.6974983120397357E-3</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12:I12" si="3">(1/2*D10*SQRT($G$17/(D13*D8)))</f>
+        <v>9.2010159784671041E-3</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="3"/>
+        <v>4.5097659049574404E-3</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="3"/>
+        <v>3.3102906610155101E-3</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="3"/>
+        <v>3.7622709168626612E-3</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="3"/>
+        <v>3.1621788035814265E-3</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1937064640364731E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="2">
+        <f t="shared" ref="C13:I13" si="4">SIN(2*PI()*C2/180)</f>
+        <v>0.8660254037844386</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="4"/>
+        <v>0.93969262078590832</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="4"/>
+        <v>0.98480775301220802</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="4"/>
+        <v>0.98480775301220802</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="4"/>
+        <v>0.93969262078590843</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="4"/>
+        <v>0.86602540378443871</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="F15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="4">
+        <f>SQRT(G17*B16)</f>
+        <v>4.8221784747795322</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="4">
+        <f>AVERAGEA(C11:I11)</f>
+        <v>4.7332879570770938</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="3">
+        <f t="array" ref="B16:C18">LINEST(C8:I8,C13:I13,1,1)</f>
+        <v>2.370377700573604</v>
+      </c>
+      <c r="C16" s="3">
+        <v>-8.0761121812659376E-2</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="4">
+        <f>STDEV(C11:I11)</f>
+        <v>6.8382117796380384E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="17" t="s">
-        <v>19</v>
+      <c r="B17" s="1">
+        <v>0.47370047016794675</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.44601707073868618</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="1">
+        <v>9.81</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="4">
+        <f>J16/SQRT(7)</f>
+        <v>2.584601111616381E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="9">
-        <f t="shared" ref="D10:M10" si="2">(E9/SQRT(5))/E8</f>
-        <v>3.3273806587496061E-3</v>
-      </c>
-      <c r="F10" s="9">
-        <f t="shared" si="2"/>
-        <v>3.9278616546135408E-3</v>
-      </c>
-      <c r="G10" s="9">
-        <f t="shared" si="2"/>
-        <v>1.9217264502917623E-3</v>
-      </c>
-      <c r="H10" s="9">
-        <f t="shared" si="2"/>
-        <v>1.3962823981150084E-3</v>
-      </c>
-      <c r="I10" s="9">
-        <f t="shared" si="2"/>
-        <v>1.5774277261182299E-3</v>
-      </c>
-      <c r="J10" s="9">
-        <f t="shared" si="2"/>
-        <v>1.3180178511673862E-3</v>
-      </c>
-      <c r="K10" s="9">
-        <f t="shared" si="2"/>
-        <v>4.9554987878356466E-3</v>
-      </c>
-      <c r="L10" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" ref="D11:M11" si="3">SQRT($B$16*E8/E13)</f>
-        <v>4.6267614688440091</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" si="3"/>
-        <v>4.685000026749865</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="3"/>
-        <v>4.6934524986870576</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" si="3"/>
-        <v>4.7415775855721272</v>
-      </c>
-      <c r="I11" s="2">
-        <f t="shared" si="3"/>
-        <v>4.7701341298481461</v>
-      </c>
-      <c r="J11" s="2">
-        <f t="shared" si="3"/>
-        <v>4.798385394827001</v>
-      </c>
-      <c r="K11" s="2">
-        <f t="shared" si="3"/>
-        <v>4.8177045950114499</v>
-      </c>
-      <c r="L11" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="10">
-        <f t="shared" ref="D12:M12" si="4">(1/2*E10*SQRT($B$16/(E13*E8)))/E11</f>
-        <v>8.8035259253614281E-4</v>
-      </c>
-      <c r="F12" s="10">
-        <f t="shared" si="4"/>
-        <v>9.340931402172511E-4</v>
-      </c>
-      <c r="G12" s="10">
-        <f t="shared" si="4"/>
-        <v>4.3450448817304913E-4</v>
-      </c>
-      <c r="H12" s="11">
-        <f t="shared" si="4"/>
-        <v>3.0462570863840831E-4</v>
-      </c>
-      <c r="I12" s="11">
-        <f t="shared" si="4"/>
-        <v>3.4528351233845459E-4</v>
-      </c>
-      <c r="J12" s="10">
-        <f t="shared" si="4"/>
-        <v>2.9880250536553759E-4</v>
-      </c>
-      <c r="K12" s="10">
-        <f t="shared" si="4"/>
-        <v>1.2092481180662877E-3</v>
-      </c>
-      <c r="L12" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" ref="D13:M13" si="5">SIN(2*PI()*E2/180)</f>
-        <v>0.8660254037844386</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="5"/>
-        <v>0.93969262078590832</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="5"/>
-        <v>0.98480775301220802</v>
-      </c>
-      <c r="H13" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I13" s="2">
-        <f t="shared" si="5"/>
-        <v>0.98480775301220802</v>
-      </c>
-      <c r="J13" s="2">
-        <f t="shared" si="5"/>
-        <v>0.93969262078590843</v>
-      </c>
-      <c r="K13" s="2">
-        <f t="shared" si="5"/>
-        <v>0.86602540378443871</v>
-      </c>
-      <c r="L13" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-    </row>
-    <row r="16" spans="1:13" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="1">
-        <v>9.81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="3">
-        <f t="array" ref="B19:C21">LINEST(E8:K8,E13:K13,1,1)</f>
-        <v>2.370377700573604</v>
-      </c>
-      <c r="C19" s="3">
-        <v>-8.0761121812659376E-2</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>7</v>
+    <row r="18" spans="1:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.83355307119159816</v>
+      </c>
+      <c r="C18" s="1">
+        <v>6.4534595727614108E-2</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0.47370047016794675</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.44601707073868618</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>23</v>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="8">
+        <v>30</v>
+      </c>
+      <c r="E20" s="8">
+        <v>35</v>
+      </c>
+      <c r="F20" s="8">
+        <v>40</v>
+      </c>
+      <c r="G20" s="8">
+        <v>45</v>
+      </c>
+      <c r="H20" s="8">
+        <v>50</v>
+      </c>
+      <c r="I20" s="8">
+        <v>55</v>
+      </c>
+      <c r="J20" s="8">
+        <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.83355307119159816</v>
-      </c>
-      <c r="C21" s="1">
-        <v>6.4534595727614108E-2</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>8</v>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="11">
+        <f>$B$16*C13+$C$16</f>
+        <v>1.9720461834482252</v>
+      </c>
+      <c r="E21" s="11">
+        <f>$B$16*D13+$C$16</f>
+        <v>2.1466653118918257</v>
+      </c>
+      <c r="F21" s="11">
+        <f>$B$16*E13+$C$16</f>
+        <v>2.2536052152794759</v>
+      </c>
+      <c r="G21" s="11">
+        <f>$B$16*F13+$C$16</f>
+        <v>2.2896165787609446</v>
+      </c>
+      <c r="H21" s="11">
+        <f>$B$16*G13+$C$16</f>
+        <v>2.2536052152794759</v>
+      </c>
+      <c r="I21" s="11">
+        <f>$B$16*H13+$C$16</f>
+        <v>2.1466653118918257</v>
+      </c>
+      <c r="J21" s="11">
+        <f>$B$16*I13+$C$16</f>
+        <v>1.9720461834482252</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="4">
-        <f>AVERAGEA(E11:K11)</f>
-        <v>4.7332879570770938</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="4">
-        <f>SQRT(B16*B19)</f>
-        <v>4.8221784747795322</v>
+      <c r="B22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="12">
+        <f>C8-D21</f>
+        <v>-8.2246183448225318E-2</v>
+      </c>
+      <c r="E22" s="12">
+        <f>D8-E21</f>
+        <v>-4.4165311891825709E-2</v>
+      </c>
+      <c r="F22" s="12">
+        <f>E8-F21</f>
+        <v>-4.2205215279475627E-2</v>
+      </c>
+      <c r="G22" s="12">
+        <f>F8-G21</f>
+        <v>2.1834212390552388E-3</v>
+      </c>
+      <c r="H22" s="12">
+        <f>G8-H21</f>
+        <v>3.0644784720524232E-2</v>
+      </c>
+      <c r="I22" s="12">
+        <f>H8-I21</f>
+        <v>5.8834688108174049E-2</v>
+      </c>
+      <c r="J22" s="12">
+        <f>I8-J21</f>
+        <v>7.695381655177469E-2</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="4">
-        <f>STDEV(E11:K11)</f>
-        <v>6.8382117796380384E-2</v>
-      </c>
+      <c r="A26" s="9"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="4">
-        <f>B27/SQRT(7)</f>
-        <v>2.584601111616381E-2</v>
-      </c>
+      <c r="A28" s="9"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
+      <c r="A30" s="9"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="8">
-        <v>30</v>
-      </c>
-      <c r="D32" s="8">
-        <v>35</v>
-      </c>
-      <c r="E32" s="8">
-        <v>40</v>
-      </c>
-      <c r="F32" s="8">
-        <v>45</v>
-      </c>
-      <c r="G32" s="8">
-        <v>50</v>
-      </c>
-      <c r="H32" s="8">
-        <v>55</v>
-      </c>
-      <c r="I32" s="8">
-        <v>60</v>
-      </c>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="24">
-        <f>$B$19*E13+$C$19</f>
-        <v>1.9720461834482252</v>
-      </c>
-      <c r="D33" s="24">
-        <f>$B$19*F13+$C$19</f>
-        <v>2.1466653118918257</v>
-      </c>
-      <c r="E33" s="24">
-        <f>$B$19*G13+$C$19</f>
-        <v>2.2536052152794759</v>
-      </c>
-      <c r="F33" s="24">
-        <f>$B$19*H13+$C$19</f>
-        <v>2.2896165787609446</v>
-      </c>
-      <c r="G33" s="24">
-        <f>$B$19*I13+$C$19</f>
-        <v>2.2536052152794759</v>
-      </c>
-      <c r="H33" s="24">
-        <f>$B$19*J13+$C$19</f>
-        <v>2.1466653118918257</v>
-      </c>
-      <c r="I33" s="24">
-        <f>$B$19*K13+$C$19</f>
-        <v>1.9720461834482252</v>
-      </c>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
+    <row r="33" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="25">
-        <f>E8-C33</f>
-        <v>-8.2246183448225318E-2</v>
-      </c>
-      <c r="D34" s="25">
-        <f>F8-D33</f>
-        <v>-4.4165311891825709E-2</v>
-      </c>
-      <c r="E34" s="25">
-        <f>G8-E33</f>
-        <v>-4.2205215279475627E-2</v>
-      </c>
-      <c r="F34" s="25">
-        <f>H8-F33</f>
-        <v>2.1834212390552388E-3</v>
-      </c>
-      <c r="G34" s="25">
-        <f>I8-G33</f>
-        <v>3.0644784720524232E-2</v>
-      </c>
-      <c r="H34" s="25">
-        <f>J8-H33</f>
-        <v>5.8834688108174049E-2</v>
-      </c>
-      <c r="I34" s="25">
-        <f>K8-I33</f>
-        <v>7.695381655177469E-2</v>
-      </c>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
+    <row r="34" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="0.11811023622047244" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
